--- a/Code/Results/Cases/Case_5_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_250/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027281220299094</v>
+        <v>1.05019399380407</v>
       </c>
       <c r="D2">
-        <v>1.045817740989885</v>
+        <v>1.05783290532045</v>
       </c>
       <c r="E2">
-        <v>1.039610602591917</v>
+        <v>1.057187736487439</v>
       </c>
       <c r="F2">
-        <v>1.049561166620723</v>
+        <v>1.067625180481724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060726735477926</v>
+        <v>1.049160186023271</v>
       </c>
       <c r="J2">
-        <v>1.048675485549937</v>
+        <v>1.055228439264246</v>
       </c>
       <c r="K2">
-        <v>1.056673637174577</v>
+        <v>1.060566794428925</v>
       </c>
       <c r="L2">
-        <v>1.05054436066689</v>
+        <v>1.05992339209416</v>
       </c>
       <c r="M2">
-        <v>1.060370659732653</v>
+        <v>1.070332541542478</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031549419886889</v>
+        <v>1.051099140355649</v>
       </c>
       <c r="D3">
-        <v>1.049178322543334</v>
+        <v>1.058565776587103</v>
       </c>
       <c r="E3">
-        <v>1.043155219619564</v>
+        <v>1.057986622290977</v>
       </c>
       <c r="F3">
-        <v>1.053391757246129</v>
+        <v>1.068490187668519</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06225278605417</v>
+        <v>1.04942122303769</v>
       </c>
       <c r="J3">
-        <v>1.05121546543283</v>
+        <v>1.055783386719374</v>
       </c>
       <c r="K3">
-        <v>1.059218371987164</v>
+        <v>1.061113785461762</v>
       </c>
       <c r="L3">
-        <v>1.053264164466482</v>
+        <v>1.06053610267233</v>
       </c>
       <c r="M3">
-        <v>1.063384188185124</v>
+        <v>1.071013247691224</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034258516415573</v>
+        <v>1.051685383885528</v>
       </c>
       <c r="D4">
-        <v>1.051313609164404</v>
+        <v>1.059040430719538</v>
       </c>
       <c r="E4">
-        <v>1.045410405024215</v>
+        <v>1.058504402466648</v>
       </c>
       <c r="F4">
-        <v>1.055828480884933</v>
+        <v>1.06905081019511</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063211473720863</v>
+        <v>1.049589069366782</v>
       </c>
       <c r="J4">
-        <v>1.052824706553636</v>
+        <v>1.05614236634828</v>
       </c>
       <c r="K4">
-        <v>1.060829790910138</v>
+        <v>1.06146749172106</v>
       </c>
       <c r="L4">
-        <v>1.054989998864826</v>
+        <v>1.06093275705777</v>
       </c>
       <c r="M4">
-        <v>1.065296749373922</v>
+        <v>1.07145396915327</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035385213960068</v>
+        <v>1.051931971740138</v>
       </c>
       <c r="D5">
-        <v>1.052202166338553</v>
+        <v>1.059240078431376</v>
       </c>
       <c r="E5">
-        <v>1.046349573822608</v>
+        <v>1.058722278545592</v>
       </c>
       <c r="F5">
-        <v>1.056843157579411</v>
+        <v>1.069286710867086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063607770673082</v>
+        <v>1.049659376964506</v>
       </c>
       <c r="J5">
-        <v>1.053493249150474</v>
+        <v>1.056293254248414</v>
       </c>
       <c r="K5">
-        <v>1.06149903170022</v>
+        <v>1.061616132702162</v>
       </c>
       <c r="L5">
-        <v>1.055707619062521</v>
+        <v>1.06109955467821</v>
       </c>
       <c r="M5">
-        <v>1.066092095986444</v>
+        <v>1.071639309055421</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035573687296814</v>
+        <v>1.05197338257282</v>
       </c>
       <c r="D6">
-        <v>1.052350832138891</v>
+        <v>1.059273606160732</v>
       </c>
       <c r="E6">
-        <v>1.046506749938826</v>
+        <v>1.058758872654368</v>
       </c>
       <c r="F6">
-        <v>1.057012965065049</v>
+        <v>1.069326332183812</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063673920001095</v>
+        <v>1.049671166944901</v>
       </c>
       <c r="J6">
-        <v>1.053605038744953</v>
+        <v>1.056318587365683</v>
       </c>
       <c r="K6">
-        <v>1.061610925718677</v>
+        <v>1.061641086791157</v>
       </c>
       <c r="L6">
-        <v>1.055827652782963</v>
+        <v>1.061127563282144</v>
       </c>
       <c r="M6">
-        <v>1.066225135641927</v>
+        <v>1.071670431952797</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034273618832946</v>
+        <v>1.05168867829117</v>
       </c>
       <c r="D7">
-        <v>1.051325517576885</v>
+        <v>1.059043098018878</v>
       </c>
       <c r="E7">
-        <v>1.045422988887411</v>
+        <v>1.058507312948584</v>
       </c>
       <c r="F7">
-        <v>1.055842076837252</v>
+        <v>1.06905396146892</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063216795328562</v>
+        <v>1.049590009823232</v>
       </c>
       <c r="J7">
-        <v>1.052833670722569</v>
+        <v>1.056144382627869</v>
       </c>
       <c r="K7">
-        <v>1.060838765265101</v>
+        <v>1.061469478095143</v>
       </c>
       <c r="L7">
-        <v>1.054999618561081</v>
+        <v>1.060934985644006</v>
       </c>
       <c r="M7">
-        <v>1.06530741066225</v>
+        <v>1.07145644543778</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028734848005293</v>
+        <v>1.050499776960109</v>
       </c>
       <c r="D8">
-        <v>1.04696175875989</v>
+        <v>1.058080491062007</v>
       </c>
       <c r="E8">
-        <v>1.040816653856801</v>
+        <v>1.057457547193261</v>
       </c>
       <c r="F8">
-        <v>1.050864607481912</v>
+        <v>1.067917325291439</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061248522068841</v>
+        <v>1.049248624170785</v>
       </c>
       <c r="J8">
-        <v>1.049541125460515</v>
+        <v>1.055416008116475</v>
       </c>
       <c r="K8">
-        <v>1.057541068839017</v>
+        <v>1.0607517002229</v>
       </c>
       <c r="L8">
-        <v>1.051470727552603</v>
+        <v>1.060130420454088</v>
       </c>
       <c r="M8">
-        <v>1.061396997282016</v>
+        <v>1.070562534876355</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.018551544622945</v>
+        <v>1.04840907777859</v>
       </c>
       <c r="D9">
-        <v>1.038958763461789</v>
+        <v>1.056387675566138</v>
       </c>
       <c r="E9">
-        <v>1.032391944126362</v>
+        <v>1.055614289921758</v>
       </c>
       <c r="F9">
-        <v>1.041757714096697</v>
+        <v>1.065921433990181</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057552635473603</v>
+        <v>1.04863895738673</v>
       </c>
       <c r="J9">
-        <v>1.043465788877872</v>
+        <v>1.054131739797114</v>
       </c>
       <c r="K9">
-        <v>1.051449873741444</v>
+        <v>1.059485149646746</v>
       </c>
       <c r="L9">
-        <v>1.044980469991328</v>
+        <v>1.058714183482511</v>
       </c>
       <c r="M9">
-        <v>1.054207777002952</v>
+        <v>1.068989397214391</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.011449148294539</v>
+        <v>1.047018247647768</v>
       </c>
       <c r="D10">
-        <v>1.033393463738665</v>
+        <v>1.055261527213209</v>
       </c>
       <c r="E10">
-        <v>1.026548614011402</v>
+        <v>1.054389962166734</v>
       </c>
       <c r="F10">
-        <v>1.035438646982316</v>
+        <v>1.064595652126908</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054925068513584</v>
+        <v>1.048227109447058</v>
       </c>
       <c r="J10">
-        <v>1.039215765112629</v>
+        <v>1.053275105981339</v>
       </c>
       <c r="K10">
-        <v>1.047184875164265</v>
+        <v>1.058639689324034</v>
       </c>
       <c r="L10">
-        <v>1.040454517646658</v>
+        <v>1.057771117143966</v>
       </c>
       <c r="M10">
-        <v>1.049196227034022</v>
+        <v>1.067942099414913</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008292415125997</v>
+        <v>1.046416723841862</v>
       </c>
       <c r="D11">
-        <v>1.030924488336219</v>
+        <v>1.054774480684231</v>
       </c>
       <c r="E11">
-        <v>1.023959810856965</v>
+        <v>1.053860904946502</v>
       </c>
       <c r="F11">
-        <v>1.032638399239129</v>
+        <v>1.064022736639709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053745928850425</v>
+        <v>1.048047502237816</v>
       </c>
       <c r="J11">
-        <v>1.037324243112223</v>
+        <v>1.052904080627928</v>
       </c>
       <c r="K11">
-        <v>1.045285863969834</v>
+        <v>1.058273351594534</v>
       </c>
       <c r="L11">
-        <v>1.038443596636127</v>
+        <v>1.057363033994001</v>
       </c>
       <c r="M11">
-        <v>1.046969979057351</v>
+        <v>1.067488972044367</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.007107006348189</v>
+        <v>1.046193399827565</v>
       </c>
       <c r="D12">
-        <v>1.029998093519849</v>
+        <v>1.054593659131273</v>
       </c>
       <c r="E12">
-        <v>1.022988975131453</v>
+        <v>1.05366455415484</v>
       </c>
       <c r="F12">
-        <v>1.031588161694439</v>
+        <v>1.063810105824604</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053301492053715</v>
+        <v>1.047980597376858</v>
       </c>
       <c r="J12">
-        <v>1.036613601033973</v>
+        <v>1.052766251825586</v>
       </c>
       <c r="K12">
-        <v>1.044572292788263</v>
+        <v>1.058137241425456</v>
       </c>
       <c r="L12">
-        <v>1.037688609317668</v>
+        <v>1.057211495708183</v>
       </c>
       <c r="M12">
-        <v>1.046134212777975</v>
+        <v>1.067320715784948</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007361873048197</v>
+        <v>1.046241298646179</v>
       </c>
       <c r="D13">
-        <v>1.030197236541492</v>
+        <v>1.054632441905351</v>
       </c>
       <c r="E13">
-        <v>1.023197648046319</v>
+        <v>1.053706664590611</v>
       </c>
       <c r="F13">
-        <v>1.031813906299536</v>
+        <v>1.063855707886791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053397121135824</v>
+        <v>1.047994957316939</v>
       </c>
       <c r="J13">
-        <v>1.036766406149097</v>
+        <v>1.052795817162524</v>
       </c>
       <c r="K13">
-        <v>1.044725732807255</v>
+        <v>1.05816643912956</v>
       </c>
       <c r="L13">
-        <v>1.037850926534113</v>
+        <v>1.057243999265268</v>
       </c>
       <c r="M13">
-        <v>1.046313894033201</v>
+        <v>1.067356804793127</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.008194694977944</v>
+        <v>1.046398261583891</v>
       </c>
       <c r="D14">
-        <v>1.030848104632422</v>
+        <v>1.054759532089052</v>
       </c>
       <c r="E14">
-        <v>1.023879752352346</v>
+        <v>1.053844671161204</v>
       </c>
       <c r="F14">
-        <v>1.032551795198633</v>
+        <v>1.064005156920053</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053709324587097</v>
+        <v>1.048041975748205</v>
       </c>
       <c r="J14">
-        <v>1.037265667461787</v>
+        <v>1.052892687924205</v>
       </c>
       <c r="K14">
-        <v>1.045227049180568</v>
+        <v>1.058262101413407</v>
       </c>
       <c r="L14">
-        <v>1.038381355337012</v>
+        <v>1.057350506928515</v>
       </c>
       <c r="M14">
-        <v>1.046901077021641</v>
+        <v>1.067475062790723</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.008706100597129</v>
+        <v>1.046494986074845</v>
       </c>
       <c r="D15">
-        <v>1.031247879661914</v>
+        <v>1.054837848415365</v>
       </c>
       <c r="E15">
-        <v>1.024298781625407</v>
+        <v>1.05392972342645</v>
       </c>
       <c r="F15">
-        <v>1.033005079645827</v>
+        <v>1.06409726070923</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053900821257339</v>
+        <v>1.04807092010097</v>
       </c>
       <c r="J15">
-        <v>1.037572201763977</v>
+        <v>1.052952371447508</v>
       </c>
       <c r="K15">
-        <v>1.045534830274203</v>
+        <v>1.058321037366223</v>
       </c>
       <c r="L15">
-        <v>1.038707093386589</v>
+        <v>1.057416135414283</v>
       </c>
       <c r="M15">
-        <v>1.047261676459939</v>
+        <v>1.067547932832194</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.0116568830112</v>
+        <v>1.047058183974388</v>
       </c>
       <c r="D16">
-        <v>1.033556039830808</v>
+        <v>1.055293863310255</v>
       </c>
       <c r="E16">
-        <v>1.026719153167967</v>
+        <v>1.054425096947097</v>
       </c>
       <c r="F16">
-        <v>1.035623100600724</v>
+        <v>1.064633699159397</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055002432531614</v>
+        <v>1.048239002597632</v>
       </c>
       <c r="J16">
-        <v>1.039340190443985</v>
+        <v>1.053299727760757</v>
       </c>
       <c r="K16">
-        <v>1.047309776662576</v>
+        <v>1.058663996834274</v>
       </c>
       <c r="L16">
-        <v>1.040586868176345</v>
+        <v>1.057798206093429</v>
       </c>
       <c r="M16">
-        <v>1.049342758411771</v>
+        <v>1.067972179680708</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.013485615329219</v>
+        <v>1.047411655442685</v>
       </c>
       <c r="D17">
-        <v>1.03498776023252</v>
+        <v>1.055580066661255</v>
       </c>
       <c r="E17">
-        <v>1.02822140014297</v>
+        <v>1.054736123253007</v>
       </c>
       <c r="F17">
-        <v>1.037247839569444</v>
+        <v>1.064970503743199</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055682203337889</v>
+        <v>1.048344095630779</v>
       </c>
       <c r="J17">
-        <v>1.040435246518164</v>
+        <v>1.053517589968736</v>
       </c>
       <c r="K17">
-        <v>1.048408930558813</v>
+        <v>1.058879060749372</v>
       </c>
       <c r="L17">
-        <v>1.041752061144861</v>
+        <v>1.058037942341203</v>
       </c>
       <c r="M17">
-        <v>1.050632846094456</v>
+        <v>1.068238395762396</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01454448002982</v>
+        <v>1.047617898251002</v>
       </c>
       <c r="D18">
-        <v>1.035817179663923</v>
+        <v>1.055747060390702</v>
       </c>
       <c r="E18">
-        <v>1.029092011800929</v>
+        <v>1.054917644190344</v>
       </c>
       <c r="F18">
-        <v>1.038189376223446</v>
+        <v>1.065167067659303</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05607472558627</v>
+        <v>1.048405271616679</v>
       </c>
       <c r="J18">
-        <v>1.041069055615111</v>
+        <v>1.053644655847802</v>
       </c>
       <c r="K18">
-        <v>1.049045032608829</v>
+        <v>1.059004479899301</v>
       </c>
       <c r="L18">
-        <v>1.042426788106069</v>
+        <v>1.058177802480608</v>
       </c>
       <c r="M18">
-        <v>1.051379936408067</v>
+        <v>1.06839370968942</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014904220491477</v>
+        <v>1.047688233362288</v>
       </c>
       <c r="D19">
-        <v>1.036099039320435</v>
+        <v>1.055804010413341</v>
       </c>
       <c r="E19">
-        <v>1.029387926783842</v>
+        <v>1.054979555823516</v>
       </c>
       <c r="F19">
-        <v>1.038509387446451</v>
+        <v>1.065234109735496</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056207897903555</v>
+        <v>1.048426110162119</v>
       </c>
       <c r="J19">
-        <v>1.041284344111817</v>
+        <v>1.053687980389311</v>
       </c>
       <c r="K19">
-        <v>1.049261086343497</v>
+        <v>1.059047240481894</v>
       </c>
       <c r="L19">
-        <v>1.042656030140943</v>
+        <v>1.058225495552041</v>
       </c>
       <c r="M19">
-        <v>1.051633771185772</v>
+        <v>1.068446673549065</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.013290221319637</v>
+        <v>1.047373724165137</v>
       </c>
       <c r="D20">
-        <v>1.034834740518565</v>
+        <v>1.05554935393013</v>
       </c>
       <c r="E20">
-        <v>1.028060807990089</v>
+        <v>1.054702742247416</v>
       </c>
       <c r="F20">
-        <v>1.037074159536335</v>
+        <v>1.064934356253467</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055609683323227</v>
+        <v>1.048332832860503</v>
       </c>
       <c r="J20">
-        <v>1.040318268572225</v>
+        <v>1.053494216385952</v>
       </c>
       <c r="K20">
-        <v>1.048291522987469</v>
+        <v>1.058855988899618</v>
       </c>
       <c r="L20">
-        <v>1.041627557376578</v>
+        <v>1.058012218207742</v>
       </c>
       <c r="M20">
-        <v>1.050494992793896</v>
+        <v>1.068209829708201</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00794980992121</v>
+        <v>1.046352036899408</v>
       </c>
       <c r="D21">
-        <v>1.030656700625238</v>
+        <v>1.054722104721984</v>
       </c>
       <c r="E21">
-        <v>1.023679148300807</v>
+        <v>1.0538040271085</v>
       </c>
       <c r="F21">
-        <v>1.032334788130049</v>
+        <v>1.063961143046133</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053617568508492</v>
+        <v>1.048028135251941</v>
       </c>
       <c r="J21">
-        <v>1.037118872490403</v>
+        <v>1.052864162261856</v>
       </c>
       <c r="K21">
-        <v>1.045079653079141</v>
+        <v>1.058233932239894</v>
       </c>
       <c r="L21">
-        <v>1.038225382240626</v>
+        <v>1.057319141907561</v>
       </c>
       <c r="M21">
-        <v>1.046728413537745</v>
+        <v>1.067440237216682</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004517346183893</v>
+        <v>1.045710291182707</v>
       </c>
       <c r="D22">
-        <v>1.027975724740108</v>
+        <v>1.054202497267394</v>
       </c>
       <c r="E22">
-        <v>1.020870536069162</v>
+        <v>1.053239922461246</v>
       </c>
       <c r="F22">
-        <v>1.029296258183</v>
+        <v>1.063350261544884</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052327591694561</v>
+        <v>1.047835456524006</v>
       </c>
       <c r="J22">
-        <v>1.035060540782494</v>
+        <v>1.052467944884127</v>
       </c>
       <c r="K22">
-        <v>1.043012628564784</v>
+        <v>1.057842612697048</v>
       </c>
       <c r="L22">
-        <v>1.036039579763822</v>
+        <v>1.056883620766571</v>
       </c>
       <c r="M22">
-        <v>1.044308865052344</v>
+        <v>1.066956685223589</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006344267420884</v>
+        <v>1.046050432608053</v>
       </c>
       <c r="D23">
-        <v>1.029402233263015</v>
+        <v>1.054477901473633</v>
       </c>
       <c r="E23">
-        <v>1.022364675848656</v>
+        <v>1.053538874104981</v>
       </c>
       <c r="F23">
-        <v>1.03091277184495</v>
+        <v>1.063674004485855</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053015065213572</v>
+        <v>1.047937703501519</v>
       </c>
       <c r="J23">
-        <v>1.036156254680805</v>
+        <v>1.052677994161084</v>
       </c>
       <c r="K23">
-        <v>1.044113029917523</v>
+        <v>1.058050077886957</v>
       </c>
       <c r="L23">
-        <v>1.037202868449657</v>
+        <v>1.057114475260625</v>
       </c>
       <c r="M23">
-        <v>1.0455965187083</v>
+        <v>1.067212994352019</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.013378535532279</v>
+        <v>1.047390863464026</v>
       </c>
       <c r="D24">
-        <v>1.03490390105995</v>
+        <v>1.055563231517983</v>
       </c>
       <c r="E24">
-        <v>1.028133390018763</v>
+        <v>1.05471782536411</v>
       </c>
       <c r="F24">
-        <v>1.037152657026281</v>
+        <v>1.064950689403808</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055642464268039</v>
+        <v>1.048337922401719</v>
       </c>
       <c r="J24">
-        <v>1.040371141045416</v>
+        <v>1.053504777931265</v>
       </c>
       <c r="K24">
-        <v>1.048344589890665</v>
+        <v>1.058866414149673</v>
       </c>
       <c r="L24">
-        <v>1.041683830419153</v>
+        <v>1.058023841756049</v>
       </c>
       <c r="M24">
-        <v>1.05055729941356</v>
+        <v>1.068222737371761</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021237206627562</v>
+        <v>1.048949056165238</v>
       </c>
       <c r="D25">
-        <v>1.041066788882395</v>
+        <v>1.056824893730155</v>
       </c>
       <c r="E25">
-        <v>1.034608387448714</v>
+        <v>1.056090028222427</v>
       </c>
       <c r="F25">
-        <v>1.044154057531701</v>
+        <v>1.066436578943906</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058536133553597</v>
+        <v>1.048797526458342</v>
       </c>
       <c r="J25">
-        <v>1.045070398636348</v>
+        <v>1.054463839187442</v>
       </c>
       <c r="K25">
-        <v>1.053059371614412</v>
+        <v>1.059812781355031</v>
       </c>
       <c r="L25">
-        <v>1.046692199188987</v>
+        <v>1.059080127887999</v>
       </c>
       <c r="M25">
-        <v>1.056103533719598</v>
+        <v>1.069395839739695</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_250/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05019399380407</v>
+        <v>1.027281220299095</v>
       </c>
       <c r="D2">
-        <v>1.05783290532045</v>
+        <v>1.045817740989885</v>
       </c>
       <c r="E2">
-        <v>1.057187736487439</v>
+        <v>1.039610602591918</v>
       </c>
       <c r="F2">
-        <v>1.067625180481724</v>
+        <v>1.049561166620724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049160186023271</v>
+        <v>1.060726735477927</v>
       </c>
       <c r="J2">
-        <v>1.055228439264246</v>
+        <v>1.048675485549938</v>
       </c>
       <c r="K2">
-        <v>1.060566794428925</v>
+        <v>1.056673637174577</v>
       </c>
       <c r="L2">
-        <v>1.05992339209416</v>
+        <v>1.050544360666891</v>
       </c>
       <c r="M2">
-        <v>1.070332541542478</v>
+        <v>1.060370659732653</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051099140355649</v>
+        <v>1.031549419886889</v>
       </c>
       <c r="D3">
-        <v>1.058565776587103</v>
+        <v>1.049178322543334</v>
       </c>
       <c r="E3">
-        <v>1.057986622290977</v>
+        <v>1.043155219619564</v>
       </c>
       <c r="F3">
-        <v>1.068490187668519</v>
+        <v>1.053391757246129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04942122303769</v>
+        <v>1.06225278605417</v>
       </c>
       <c r="J3">
-        <v>1.055783386719374</v>
+        <v>1.05121546543283</v>
       </c>
       <c r="K3">
-        <v>1.061113785461762</v>
+        <v>1.059218371987165</v>
       </c>
       <c r="L3">
-        <v>1.06053610267233</v>
+        <v>1.053264164466481</v>
       </c>
       <c r="M3">
-        <v>1.071013247691224</v>
+        <v>1.063384188185123</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051685383885528</v>
+        <v>1.034258516415572</v>
       </c>
       <c r="D4">
-        <v>1.059040430719538</v>
+        <v>1.051313609164403</v>
       </c>
       <c r="E4">
-        <v>1.058504402466648</v>
+        <v>1.045410405024214</v>
       </c>
       <c r="F4">
-        <v>1.06905081019511</v>
+        <v>1.055828480884932</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049589069366782</v>
+        <v>1.063211473720862</v>
       </c>
       <c r="J4">
-        <v>1.05614236634828</v>
+        <v>1.052824706553635</v>
       </c>
       <c r="K4">
-        <v>1.06146749172106</v>
+        <v>1.060829790910137</v>
       </c>
       <c r="L4">
-        <v>1.06093275705777</v>
+        <v>1.054989998864825</v>
       </c>
       <c r="M4">
-        <v>1.07145396915327</v>
+        <v>1.065296749373921</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051931971740138</v>
+        <v>1.035385213960067</v>
       </c>
       <c r="D5">
-        <v>1.059240078431376</v>
+        <v>1.052202166338554</v>
       </c>
       <c r="E5">
-        <v>1.058722278545592</v>
+        <v>1.046349573822607</v>
       </c>
       <c r="F5">
-        <v>1.069286710867086</v>
+        <v>1.056843157579411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049659376964506</v>
+        <v>1.063607770673082</v>
       </c>
       <c r="J5">
-        <v>1.056293254248414</v>
+        <v>1.053493249150474</v>
       </c>
       <c r="K5">
-        <v>1.061616132702162</v>
+        <v>1.06149903170022</v>
       </c>
       <c r="L5">
-        <v>1.06109955467821</v>
+        <v>1.055707619062521</v>
       </c>
       <c r="M5">
-        <v>1.071639309055421</v>
+        <v>1.066092095986444</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05197338257282</v>
+        <v>1.035573687296814</v>
       </c>
       <c r="D6">
-        <v>1.059273606160732</v>
+        <v>1.052350832138891</v>
       </c>
       <c r="E6">
-        <v>1.058758872654368</v>
+        <v>1.046506749938826</v>
       </c>
       <c r="F6">
-        <v>1.069326332183812</v>
+        <v>1.057012965065049</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049671166944901</v>
+        <v>1.063673920001095</v>
       </c>
       <c r="J6">
-        <v>1.056318587365683</v>
+        <v>1.053605038744953</v>
       </c>
       <c r="K6">
-        <v>1.061641086791157</v>
+        <v>1.061610925718677</v>
       </c>
       <c r="L6">
-        <v>1.061127563282144</v>
+        <v>1.055827652782963</v>
       </c>
       <c r="M6">
-        <v>1.071670431952797</v>
+        <v>1.066225135641928</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05168867829117</v>
+        <v>1.034273618832946</v>
       </c>
       <c r="D7">
-        <v>1.059043098018878</v>
+        <v>1.051325517576883</v>
       </c>
       <c r="E7">
-        <v>1.058507312948584</v>
+        <v>1.04542298888741</v>
       </c>
       <c r="F7">
-        <v>1.06905396146892</v>
+        <v>1.055842076837251</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049590009823232</v>
+        <v>1.063216795328561</v>
       </c>
       <c r="J7">
-        <v>1.056144382627869</v>
+        <v>1.052833670722568</v>
       </c>
       <c r="K7">
-        <v>1.061469478095143</v>
+        <v>1.0608387652651</v>
       </c>
       <c r="L7">
-        <v>1.060934985644006</v>
+        <v>1.05499961856108</v>
       </c>
       <c r="M7">
-        <v>1.07145644543778</v>
+        <v>1.065307410662249</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050499776960109</v>
+        <v>1.028734848005292</v>
       </c>
       <c r="D8">
-        <v>1.058080491062007</v>
+        <v>1.046961758759889</v>
       </c>
       <c r="E8">
-        <v>1.057457547193261</v>
+        <v>1.040816653856799</v>
       </c>
       <c r="F8">
-        <v>1.067917325291439</v>
+        <v>1.05086460748191</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049248624170785</v>
+        <v>1.061248522068841</v>
       </c>
       <c r="J8">
-        <v>1.055416008116475</v>
+        <v>1.049541125460513</v>
       </c>
       <c r="K8">
-        <v>1.0607517002229</v>
+        <v>1.057541068839015</v>
       </c>
       <c r="L8">
-        <v>1.060130420454088</v>
+        <v>1.051470727552602</v>
       </c>
       <c r="M8">
-        <v>1.070562534876355</v>
+        <v>1.061396997282014</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04840907777859</v>
+        <v>1.018551544622944</v>
       </c>
       <c r="D9">
-        <v>1.056387675566138</v>
+        <v>1.038958763461787</v>
       </c>
       <c r="E9">
-        <v>1.055614289921758</v>
+        <v>1.03239194412636</v>
       </c>
       <c r="F9">
-        <v>1.065921433990181</v>
+        <v>1.041757714096696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04863895738673</v>
+        <v>1.057552635473602</v>
       </c>
       <c r="J9">
-        <v>1.054131739797114</v>
+        <v>1.04346578887787</v>
       </c>
       <c r="K9">
-        <v>1.059485149646746</v>
+        <v>1.051449873741442</v>
       </c>
       <c r="L9">
-        <v>1.058714183482511</v>
+        <v>1.044980469991327</v>
       </c>
       <c r="M9">
-        <v>1.068989397214391</v>
+        <v>1.05420777700295</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047018247647768</v>
+        <v>1.011449148294538</v>
       </c>
       <c r="D10">
-        <v>1.055261527213209</v>
+        <v>1.033393463738664</v>
       </c>
       <c r="E10">
-        <v>1.054389962166734</v>
+        <v>1.026548614011401</v>
       </c>
       <c r="F10">
-        <v>1.064595652126908</v>
+        <v>1.035438646982315</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048227109447058</v>
+        <v>1.054925068513584</v>
       </c>
       <c r="J10">
-        <v>1.053275105981339</v>
+        <v>1.039215765112628</v>
       </c>
       <c r="K10">
-        <v>1.058639689324034</v>
+        <v>1.047184875164264</v>
       </c>
       <c r="L10">
-        <v>1.057771117143966</v>
+        <v>1.040454517646657</v>
       </c>
       <c r="M10">
-        <v>1.067942099414913</v>
+        <v>1.049196227034021</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046416723841862</v>
+        <v>1.008292415125996</v>
       </c>
       <c r="D11">
-        <v>1.054774480684231</v>
+        <v>1.030924488336218</v>
       </c>
       <c r="E11">
-        <v>1.053860904946502</v>
+        <v>1.023959810856964</v>
       </c>
       <c r="F11">
-        <v>1.064022736639709</v>
+        <v>1.032638399239129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048047502237816</v>
+        <v>1.053745928850425</v>
       </c>
       <c r="J11">
-        <v>1.052904080627928</v>
+        <v>1.037324243112223</v>
       </c>
       <c r="K11">
-        <v>1.058273351594534</v>
+        <v>1.045285863969834</v>
       </c>
       <c r="L11">
-        <v>1.057363033994001</v>
+        <v>1.038443596636127</v>
       </c>
       <c r="M11">
-        <v>1.067488972044367</v>
+        <v>1.04696997905735</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046193399827565</v>
+        <v>1.007107006348188</v>
       </c>
       <c r="D12">
-        <v>1.054593659131273</v>
+        <v>1.029998093519848</v>
       </c>
       <c r="E12">
-        <v>1.05366455415484</v>
+        <v>1.022988975131452</v>
       </c>
       <c r="F12">
-        <v>1.063810105824604</v>
+        <v>1.031588161694438</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047980597376858</v>
+        <v>1.053301492053714</v>
       </c>
       <c r="J12">
-        <v>1.052766251825586</v>
+        <v>1.036613601033972</v>
       </c>
       <c r="K12">
-        <v>1.058137241425456</v>
+        <v>1.044572292788263</v>
       </c>
       <c r="L12">
-        <v>1.057211495708183</v>
+        <v>1.037688609317667</v>
       </c>
       <c r="M12">
-        <v>1.067320715784948</v>
+        <v>1.046134212777974</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046241298646179</v>
+        <v>1.007361873048196</v>
       </c>
       <c r="D13">
-        <v>1.054632441905351</v>
+        <v>1.030197236541492</v>
       </c>
       <c r="E13">
-        <v>1.053706664590611</v>
+        <v>1.023197648046319</v>
       </c>
       <c r="F13">
-        <v>1.063855707886791</v>
+        <v>1.031813906299536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047994957316939</v>
+        <v>1.053397121135824</v>
       </c>
       <c r="J13">
-        <v>1.052795817162524</v>
+        <v>1.036766406149096</v>
       </c>
       <c r="K13">
-        <v>1.05816643912956</v>
+        <v>1.044725732807255</v>
       </c>
       <c r="L13">
-        <v>1.057243999265268</v>
+        <v>1.037850926534113</v>
       </c>
       <c r="M13">
-        <v>1.067356804793127</v>
+        <v>1.046313894033201</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046398261583891</v>
+        <v>1.008194694977945</v>
       </c>
       <c r="D14">
-        <v>1.054759532089052</v>
+        <v>1.030848104632422</v>
       </c>
       <c r="E14">
-        <v>1.053844671161204</v>
+        <v>1.023879752352346</v>
       </c>
       <c r="F14">
-        <v>1.064005156920053</v>
+        <v>1.032551795198634</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048041975748205</v>
+        <v>1.053709324587097</v>
       </c>
       <c r="J14">
-        <v>1.052892687924205</v>
+        <v>1.037265667461787</v>
       </c>
       <c r="K14">
-        <v>1.058262101413407</v>
+        <v>1.045227049180568</v>
       </c>
       <c r="L14">
-        <v>1.057350506928515</v>
+        <v>1.038381355337012</v>
       </c>
       <c r="M14">
-        <v>1.067475062790723</v>
+        <v>1.046901077021642</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046494986074845</v>
+        <v>1.008706100597129</v>
       </c>
       <c r="D15">
-        <v>1.054837848415365</v>
+        <v>1.031247879661914</v>
       </c>
       <c r="E15">
-        <v>1.05392972342645</v>
+        <v>1.024298781625407</v>
       </c>
       <c r="F15">
-        <v>1.06409726070923</v>
+        <v>1.033005079645827</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04807092010097</v>
+        <v>1.053900821257339</v>
       </c>
       <c r="J15">
-        <v>1.052952371447508</v>
+        <v>1.037572201763977</v>
       </c>
       <c r="K15">
-        <v>1.058321037366223</v>
+        <v>1.045534830274203</v>
       </c>
       <c r="L15">
-        <v>1.057416135414283</v>
+        <v>1.038707093386589</v>
       </c>
       <c r="M15">
-        <v>1.067547932832194</v>
+        <v>1.04726167645994</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047058183974388</v>
+        <v>1.0116568830112</v>
       </c>
       <c r="D16">
-        <v>1.055293863310255</v>
+        <v>1.033556039830807</v>
       </c>
       <c r="E16">
-        <v>1.054425096947097</v>
+        <v>1.026719153167967</v>
       </c>
       <c r="F16">
-        <v>1.064633699159397</v>
+        <v>1.035623100600724</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048239002597632</v>
+        <v>1.055002432531614</v>
       </c>
       <c r="J16">
-        <v>1.053299727760757</v>
+        <v>1.039340190443984</v>
       </c>
       <c r="K16">
-        <v>1.058663996834274</v>
+        <v>1.047309776662576</v>
       </c>
       <c r="L16">
-        <v>1.057798206093429</v>
+        <v>1.040586868176345</v>
       </c>
       <c r="M16">
-        <v>1.067972179680708</v>
+        <v>1.04934275841177</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047411655442685</v>
+        <v>1.013485615329219</v>
       </c>
       <c r="D17">
-        <v>1.055580066661255</v>
+        <v>1.03498776023252</v>
       </c>
       <c r="E17">
-        <v>1.054736123253007</v>
+        <v>1.02822140014297</v>
       </c>
       <c r="F17">
-        <v>1.064970503743199</v>
+        <v>1.037247839569444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048344095630779</v>
+        <v>1.055682203337888</v>
       </c>
       <c r="J17">
-        <v>1.053517589968736</v>
+        <v>1.040435246518164</v>
       </c>
       <c r="K17">
-        <v>1.058879060749372</v>
+        <v>1.048408930558813</v>
       </c>
       <c r="L17">
-        <v>1.058037942341203</v>
+        <v>1.041752061144861</v>
       </c>
       <c r="M17">
-        <v>1.068238395762396</v>
+        <v>1.050632846094456</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047617898251002</v>
+        <v>1.01454448002982</v>
       </c>
       <c r="D18">
-        <v>1.055747060390702</v>
+        <v>1.035817179663922</v>
       </c>
       <c r="E18">
-        <v>1.054917644190344</v>
+        <v>1.029092011800928</v>
       </c>
       <c r="F18">
-        <v>1.065167067659303</v>
+        <v>1.038189376223446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048405271616679</v>
+        <v>1.056074725586269</v>
       </c>
       <c r="J18">
-        <v>1.053644655847802</v>
+        <v>1.04106905561511</v>
       </c>
       <c r="K18">
-        <v>1.059004479899301</v>
+        <v>1.049045032608828</v>
       </c>
       <c r="L18">
-        <v>1.058177802480608</v>
+        <v>1.042426788106068</v>
       </c>
       <c r="M18">
-        <v>1.06839370968942</v>
+        <v>1.051379936408067</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047688233362288</v>
+        <v>1.014904220491478</v>
       </c>
       <c r="D19">
-        <v>1.055804010413341</v>
+        <v>1.036099039320436</v>
       </c>
       <c r="E19">
-        <v>1.054979555823516</v>
+        <v>1.029387926783842</v>
       </c>
       <c r="F19">
-        <v>1.065234109735496</v>
+        <v>1.038509387446452</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048426110162119</v>
+        <v>1.056207897903556</v>
       </c>
       <c r="J19">
-        <v>1.053687980389311</v>
+        <v>1.041284344111818</v>
       </c>
       <c r="K19">
-        <v>1.059047240481894</v>
+        <v>1.049261086343497</v>
       </c>
       <c r="L19">
-        <v>1.058225495552041</v>
+        <v>1.042656030140944</v>
       </c>
       <c r="M19">
-        <v>1.068446673549065</v>
+        <v>1.051633771185773</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047373724165137</v>
+        <v>1.013290221319637</v>
       </c>
       <c r="D20">
-        <v>1.05554935393013</v>
+        <v>1.034834740518565</v>
       </c>
       <c r="E20">
-        <v>1.054702742247416</v>
+        <v>1.028060807990089</v>
       </c>
       <c r="F20">
-        <v>1.064934356253467</v>
+        <v>1.037074159536335</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048332832860503</v>
+        <v>1.055609683323227</v>
       </c>
       <c r="J20">
-        <v>1.053494216385952</v>
+        <v>1.040318268572224</v>
       </c>
       <c r="K20">
-        <v>1.058855988899618</v>
+        <v>1.048291522987469</v>
       </c>
       <c r="L20">
-        <v>1.058012218207742</v>
+        <v>1.041627557376578</v>
       </c>
       <c r="M20">
-        <v>1.068209829708201</v>
+        <v>1.050494992793896</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046352036899408</v>
+        <v>1.00794980992121</v>
       </c>
       <c r="D21">
-        <v>1.054722104721984</v>
+        <v>1.030656700625238</v>
       </c>
       <c r="E21">
-        <v>1.0538040271085</v>
+        <v>1.023679148300807</v>
       </c>
       <c r="F21">
-        <v>1.063961143046133</v>
+        <v>1.032334788130049</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048028135251941</v>
+        <v>1.053617568508492</v>
       </c>
       <c r="J21">
-        <v>1.052864162261856</v>
+        <v>1.037118872490403</v>
       </c>
       <c r="K21">
-        <v>1.058233932239894</v>
+        <v>1.045079653079141</v>
       </c>
       <c r="L21">
-        <v>1.057319141907561</v>
+        <v>1.038225382240626</v>
       </c>
       <c r="M21">
-        <v>1.067440237216682</v>
+        <v>1.046728413537745</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045710291182707</v>
+        <v>1.004517346183893</v>
       </c>
       <c r="D22">
-        <v>1.054202497267394</v>
+        <v>1.027975724740108</v>
       </c>
       <c r="E22">
-        <v>1.053239922461246</v>
+        <v>1.020870536069162</v>
       </c>
       <c r="F22">
-        <v>1.063350261544884</v>
+        <v>1.029296258183</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047835456524006</v>
+        <v>1.052327591694561</v>
       </c>
       <c r="J22">
-        <v>1.052467944884127</v>
+        <v>1.035060540782494</v>
       </c>
       <c r="K22">
-        <v>1.057842612697048</v>
+        <v>1.043012628564784</v>
       </c>
       <c r="L22">
-        <v>1.056883620766571</v>
+        <v>1.036039579763822</v>
       </c>
       <c r="M22">
-        <v>1.066956685223589</v>
+        <v>1.044308865052344</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046050432608053</v>
+        <v>1.006344267420884</v>
       </c>
       <c r="D23">
-        <v>1.054477901473633</v>
+        <v>1.029402233263015</v>
       </c>
       <c r="E23">
-        <v>1.053538874104981</v>
+        <v>1.022364675848656</v>
       </c>
       <c r="F23">
-        <v>1.063674004485855</v>
+        <v>1.03091277184495</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047937703501519</v>
+        <v>1.053015065213573</v>
       </c>
       <c r="J23">
-        <v>1.052677994161084</v>
+        <v>1.036156254680805</v>
       </c>
       <c r="K23">
-        <v>1.058050077886957</v>
+        <v>1.044113029917523</v>
       </c>
       <c r="L23">
-        <v>1.057114475260625</v>
+        <v>1.037202868449657</v>
       </c>
       <c r="M23">
-        <v>1.067212994352019</v>
+        <v>1.0455965187083</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047390863464026</v>
+        <v>1.013378535532278</v>
       </c>
       <c r="D24">
-        <v>1.055563231517983</v>
+        <v>1.03490390105995</v>
       </c>
       <c r="E24">
-        <v>1.05471782536411</v>
+        <v>1.028133390018762</v>
       </c>
       <c r="F24">
-        <v>1.064950689403808</v>
+        <v>1.037152657026281</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048337922401719</v>
+        <v>1.055642464268039</v>
       </c>
       <c r="J24">
-        <v>1.053504777931265</v>
+        <v>1.040371141045416</v>
       </c>
       <c r="K24">
-        <v>1.058866414149673</v>
+        <v>1.048344589890665</v>
       </c>
       <c r="L24">
-        <v>1.058023841756049</v>
+        <v>1.041683830419152</v>
       </c>
       <c r="M24">
-        <v>1.068222737371761</v>
+        <v>1.05055729941356</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048949056165238</v>
+        <v>1.021237206627563</v>
       </c>
       <c r="D25">
-        <v>1.056824893730155</v>
+        <v>1.041066788882396</v>
       </c>
       <c r="E25">
-        <v>1.056090028222427</v>
+        <v>1.034608387448715</v>
       </c>
       <c r="F25">
-        <v>1.066436578943906</v>
+        <v>1.044154057531702</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048797526458342</v>
+        <v>1.058536133553597</v>
       </c>
       <c r="J25">
-        <v>1.054463839187442</v>
+        <v>1.045070398636349</v>
       </c>
       <c r="K25">
-        <v>1.059812781355031</v>
+        <v>1.053059371614413</v>
       </c>
       <c r="L25">
-        <v>1.059080127887999</v>
+        <v>1.046692199188987</v>
       </c>
       <c r="M25">
-        <v>1.069395839739695</v>
+        <v>1.056103533719598</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
